--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1619812.770167995</v>
+        <v>1616960.934936142</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1787830.935414863</v>
+        <v>1822995.70330645</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4919747.866036817</v>
+        <v>4919747.866036818</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8096297.203390541</v>
+        <v>8096297.20339054</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>275.2631474295903</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>143.0786152624758</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.92784848665471</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>267.3091065114357</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>165.6158245190444</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>147.2141105695207</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>93.50754666438522</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>86.64940239199018</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>176.492541022383</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.8860873544467</v>
+        <v>110.7896443187721</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1384,13 +1384,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.8247535352252</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>240.2062320016695</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>108.1045920014103</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>89.70829720427268</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.8313869843473</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>25.06600571167719</v>
       </c>
       <c r="S17" t="n">
-        <v>112.4426581424734</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.179222991945</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -1940,10 +1940,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H18" t="n">
-        <v>86.38229489247486</v>
+        <v>86.38229489247487</v>
       </c>
       <c r="I18" t="n">
-        <v>45.21383710579055</v>
+        <v>45.21383710579059</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.04250582871807</v>
+        <v>17.04250582871813</v>
       </c>
       <c r="S18" t="n">
         <v>131.5962913112782</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.2264929501066</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.9790380929424</v>
       </c>
       <c r="U19" t="n">
-        <v>197.7234896216899</v>
+        <v>260.5770293008711</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.8313869843473</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>25.06600571167719</v>
       </c>
       <c r="S20" t="n">
-        <v>112.4426581424734</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.179222991945</v>
+        <v>46.8073209122909</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2177,10 +2177,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H21" t="n">
-        <v>86.38229489247486</v>
+        <v>86.38229489247487</v>
       </c>
       <c r="I21" t="n">
-        <v>45.21383710579055</v>
+        <v>45.21383710579059</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.04250582871806</v>
+        <v>17.04250582871813</v>
       </c>
       <c r="S21" t="n">
         <v>131.5962913112782</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4819164376007</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.1271674224727</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>129.0690572509242</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>214.8456178225111</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>235.6043521716382</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2335,7 +2335,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>152.4706207287588</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2386,7 +2386,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>39.43564680423152</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>49.81719738874603</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>60.93313188467484</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>91.18032069999975</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>81.38860015321242</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>115.2741493183262</v>
+        <v>14.36554779710511</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,16 +2800,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>296.6355406340872</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>113.8693593270194</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>38.60126140173918</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685199</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>129.4453052563939</v>
       </c>
       <c r="W31" t="n">
-        <v>38.91286352692122</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>95.79491457797133</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>212.3425691598626</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>76.19311257242941</v>
       </c>
       <c r="H34" t="n">
-        <v>53.5853364767202</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>152.4706207287579</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>91.1803206999984</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>109.1083370416196</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -3438,13 +3438,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>5.702414225935866</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>11.08509183685201</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>390.3052078643886</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>61.13880188808132</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3571,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>63.68280874582664</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -3678,13 +3678,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>91.93079072086945</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3754,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>314.7099853831353</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>31.67786404540469</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>91.1803206999984</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>76.19311257242941</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>25.63369631866107</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>232.2142445012334</v>
@@ -3957,16 +3957,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>160.0073603134594</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3997,7 +3997,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>167.2534120856429</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4076,7 +4076,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>37.8629456688208</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597831</v>
+        <v>3.786554340597849</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>119.1064492346769</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>76.19311257242943</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1549.899190548941</v>
+        <v>893.6517152721435</v>
       </c>
       <c r="C2" t="n">
-        <v>1549.899190548941</v>
+        <v>500.4762137750741</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.458061765609</v>
+        <v>222.4326305128616</v>
       </c>
       <c r="E2" t="n">
-        <v>761.8745368821535</v>
+        <v>222.4326305128616</v>
       </c>
       <c r="F2" t="n">
-        <v>344.9800984121313</v>
+        <v>209.5785960832435</v>
       </c>
       <c r="G2" t="n">
         <v>200.4562446116507</v>
@@ -4327,7 +4327,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4348,7 +4348,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
@@ -4357,25 +4357,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
         <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2677.949313991765</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>2335.842504695283</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W2" t="n">
-        <v>2335.842504695283</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X2" t="n">
-        <v>1946.38989962834</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y2" t="n">
-        <v>1549.899190548941</v>
+        <v>1294.14646098354</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>1107.359996292366</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L3" t="n">
-        <v>1305.886481777555</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M3" t="n">
-        <v>1933.658131404236</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N3" t="n">
-        <v>2589.436102614795</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4521,19 +4521,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2397.459527283501</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C5" t="n">
-        <v>2004.284025786432</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D5" t="n">
-        <v>1618.8428970031</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="E5" t="n">
-        <v>1216.259372119644</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="F5" t="n">
-        <v>799.3649336496217</v>
+        <v>116.6231443137434</v>
       </c>
       <c r="G5" t="n">
-        <v>386.2021781376249</v>
+        <v>107.5007928421506</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411552</v>
+        <v>107.5007928421506</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>3067.963471491298</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>3067.963471491298</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>3067.963471491298</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>3067.963471491298</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>2797.954272994898</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1863.93438008877</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>387.9573587356116</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
         <v>143.9541688140574</v>
@@ -4755,22 +4755,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="X7" t="n">
-        <v>796.2774386102695</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.700500902976</v>
+        <v>2131.756240150632</v>
       </c>
       <c r="C8" t="n">
-        <v>1601.700500902976</v>
+        <v>1738.580738653563</v>
       </c>
       <c r="D8" t="n">
-        <v>1216.259372119644</v>
+        <v>1353.139609870231</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.259372119644</v>
+        <v>950.5560849867751</v>
       </c>
       <c r="F8" t="n">
-        <v>799.3649336496217</v>
+        <v>533.6616465167529</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4822,7 +4822,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
         <v>3105.956385205776</v>
@@ -4831,25 +4831,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2957.255263418381</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2733.754660977798</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U8" t="n">
-        <v>2733.754660977798</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V8" t="n">
-        <v>2391.647851681316</v>
+        <v>2532.250985862029</v>
       </c>
       <c r="W8" t="n">
-        <v>2391.647851681316</v>
+        <v>2532.250985862029</v>
       </c>
       <c r="X8" t="n">
-        <v>2002.195246614373</v>
+        <v>2532.250985862029</v>
       </c>
       <c r="Y8" t="n">
-        <v>2002.195246614373</v>
+        <v>2532.250985862029</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N9" t="n">
-        <v>1829.234834439669</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>2037.722613466195</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>636.8490770607943</v>
+        <v>785.2908562836649</v>
       </c>
       <c r="V10" t="n">
-        <v>636.8490770607943</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="W10" t="n">
-        <v>636.8490770607943</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X10" t="n">
-        <v>636.8490770607943</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y10" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.459527283501</v>
+        <v>1798.55083824553</v>
       </c>
       <c r="C11" t="n">
-        <v>2004.284025786432</v>
+        <v>1405.375336748461</v>
       </c>
       <c r="D11" t="n">
-        <v>1618.8428970031</v>
+        <v>1019.934207965129</v>
       </c>
       <c r="E11" t="n">
-        <v>1216.259372119644</v>
+        <v>617.350683081673</v>
       </c>
       <c r="F11" t="n">
-        <v>799.3649336496217</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>2306.950278960052</v>
       </c>
       <c r="X11" t="n">
-        <v>3105.956385205776</v>
+        <v>2306.950278960052</v>
       </c>
       <c r="Y11" t="n">
-        <v>2709.465676126377</v>
+        <v>1910.459569880654</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5223,22 +5223,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6912334709294</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V13" t="n">
-        <v>62.11912770411552</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W13" t="n">
-        <v>62.11912770411552</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X13" t="n">
         <v>62.11912770411552</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>840.7357579845172</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C14" t="n">
-        <v>447.5602564874478</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D14" t="n">
-        <v>62.11912770411552</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E14" t="n">
-        <v>62.11912770411552</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F14" t="n">
-        <v>62.11912770411552</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G14" t="n">
         <v>62.11912770411552</v>
@@ -5308,22 +5308,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2996.032391735851</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2740.27966217045</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2398.172852873969</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W14" t="n">
-        <v>2027.173817842256</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X14" t="n">
-        <v>1637.721212775313</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y14" t="n">
-        <v>1241.230503695914</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D16" t="n">
-        <v>807.9330371481826</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E16" t="n">
-        <v>652.3742250073851</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F16" t="n">
-        <v>495.0482902203581</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G16" t="n">
-        <v>326.7942363198036</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>171.3156852812976</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411552</v>
@@ -5472,16 +5472,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>180.1760807806529</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>180.1760807806529</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>845.3532215103546</v>
+        <v>1782.965494654864</v>
       </c>
       <c r="C17" t="n">
-        <v>452.1777200132852</v>
+        <v>1389.789993157794</v>
       </c>
       <c r="D17" t="n">
-        <v>66.73659122995299</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="E17" t="n">
-        <v>66.73659122995299</v>
+        <v>896.5920266538614</v>
       </c>
       <c r="F17" t="n">
-        <v>66.73659122995299</v>
+        <v>479.6975881838391</v>
       </c>
       <c r="G17" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="H17" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="I17" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J17" t="n">
-        <v>228.1696018523345</v>
+        <v>228.1696018523342</v>
       </c>
       <c r="K17" t="n">
-        <v>612.3056806068518</v>
+        <v>612.3056806068511</v>
       </c>
       <c r="L17" t="n">
-        <v>1136.831389612605</v>
+        <v>1136.831389612604</v>
       </c>
       <c r="M17" t="n">
         <v>1717.554329029429</v>
       </c>
       <c r="N17" t="n">
-        <v>2280.649490936953</v>
+        <v>2280.649490936951</v>
       </c>
       <c r="O17" t="n">
-        <v>2754.006657546708</v>
+        <v>2754.006657546707</v>
       </c>
       <c r="P17" t="n">
-        <v>3130.629921188929</v>
+        <v>3130.629921188926</v>
       </c>
       <c r="Q17" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497647</v>
       </c>
       <c r="R17" t="n">
-        <v>3336.82956149765</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="S17" t="n">
-        <v>3223.251118929495</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="T17" t="n">
-        <v>3000.63371457704</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="U17" t="n">
-        <v>2744.897125696288</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="V17" t="n">
-        <v>2402.790316399806</v>
+        <v>2969.403554512603</v>
       </c>
       <c r="W17" t="n">
-        <v>2031.791281368094</v>
+        <v>2969.403554512603</v>
       </c>
       <c r="X17" t="n">
-        <v>1642.33867630115</v>
+        <v>2579.95094944566</v>
       </c>
       <c r="Y17" t="n">
-        <v>1245.847967221752</v>
+        <v>2183.460240366261</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>112.4071337610546</v>
       </c>
       <c r="I18" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J18" t="n">
-        <v>66.73659122995299</v>
+        <v>179.8515734496803</v>
       </c>
       <c r="K18" t="n">
-        <v>386.4757372921794</v>
+        <v>516.6754438704056</v>
       </c>
       <c r="L18" t="n">
-        <v>870.0418231904927</v>
+        <v>1023.21405005466</v>
       </c>
       <c r="M18" t="n">
-        <v>1497.813472817174</v>
+        <v>1023.21405005466</v>
       </c>
       <c r="N18" t="n">
-        <v>2153.591444027733</v>
+        <v>1155.666274078558</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.055152615259</v>
+        <v>1697.359575717139</v>
       </c>
       <c r="P18" t="n">
-        <v>2371.055152615259</v>
+        <v>2123.184511511797</v>
       </c>
       <c r="Q18" t="n">
         <v>2371.055152615259</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="C19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="D19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="E19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="F19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="G19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="H19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="I19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="K19" t="n">
-        <v>158.8770705324135</v>
+        <v>158.8770705324134</v>
       </c>
       <c r="L19" t="n">
-        <v>336.1921232544488</v>
+        <v>336.1921232544486</v>
       </c>
       <c r="M19" t="n">
-        <v>536.3879794294577</v>
+        <v>536.3879794294573</v>
       </c>
       <c r="N19" t="n">
-        <v>733.151278648043</v>
+        <v>733.1512786480425</v>
       </c>
       <c r="O19" t="n">
-        <v>908.3935224516665</v>
+        <v>908.3935224516659</v>
       </c>
       <c r="P19" t="n">
         <v>1038.997665514103</v>
       </c>
       <c r="Q19" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="R19" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="S19" t="n">
-        <v>1049.847357282534</v>
+        <v>848.6084755147485</v>
       </c>
       <c r="T19" t="n">
-        <v>1049.847357282534</v>
+        <v>613.2761138047057</v>
       </c>
       <c r="U19" t="n">
-        <v>850.1266606949681</v>
+        <v>350.0669932987753</v>
       </c>
       <c r="V19" t="n">
-        <v>584.1473155157923</v>
+        <v>350.0669932987753</v>
       </c>
       <c r="W19" t="n">
-        <v>300.8169134469699</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="X19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>845.3532215103546</v>
+        <v>2077.792181817718</v>
       </c>
       <c r="C20" t="n">
-        <v>452.1777200132852</v>
+        <v>1684.616680320649</v>
       </c>
       <c r="D20" t="n">
-        <v>66.73659122995299</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="E20" t="n">
-        <v>66.73659122995299</v>
+        <v>896.5920266538614</v>
       </c>
       <c r="F20" t="n">
-        <v>66.73659122995299</v>
+        <v>479.6975881838391</v>
       </c>
       <c r="G20" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="H20" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="I20" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J20" t="n">
-        <v>228.1696018523346</v>
+        <v>228.1696018523342</v>
       </c>
       <c r="K20" t="n">
-        <v>612.3056806068514</v>
+        <v>612.3056806068513</v>
       </c>
       <c r="L20" t="n">
-        <v>1136.831389612605</v>
+        <v>1136.831389612604</v>
       </c>
       <c r="M20" t="n">
         <v>1717.554329029429</v>
       </c>
       <c r="N20" t="n">
-        <v>2280.649490936953</v>
+        <v>2280.649490936952</v>
       </c>
       <c r="O20" t="n">
-        <v>2754.006657546709</v>
+        <v>2754.006657546707</v>
       </c>
       <c r="P20" t="n">
-        <v>3130.629921188929</v>
+        <v>3130.629921188926</v>
       </c>
       <c r="Q20" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497647</v>
       </c>
       <c r="R20" t="n">
-        <v>3336.82956149765</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="S20" t="n">
-        <v>3223.251118929495</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="T20" t="n">
-        <v>3000.63371457704</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="U20" t="n">
-        <v>2744.897125696288</v>
+        <v>3264.230241675457</v>
       </c>
       <c r="V20" t="n">
-        <v>2402.790316399806</v>
+        <v>3264.230241675457</v>
       </c>
       <c r="W20" t="n">
-        <v>2031.791281368094</v>
+        <v>3264.230241675457</v>
       </c>
       <c r="X20" t="n">
-        <v>1642.33867630115</v>
+        <v>2874.777636608514</v>
       </c>
       <c r="Y20" t="n">
-        <v>1245.847967221752</v>
+        <v>2478.286927529115</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>112.4071337610546</v>
       </c>
       <c r="I21" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J21" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="K21" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="L21" t="n">
-        <v>550.3026771282663</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="M21" t="n">
-        <v>1178.074326754947</v>
+        <v>472.3709312805626</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.852297965506</v>
+        <v>1155.666274078558</v>
       </c>
       <c r="O21" t="n">
-        <v>2350.372580556487</v>
+        <v>1697.359575717139</v>
       </c>
       <c r="P21" t="n">
-        <v>2371.055152615259</v>
+        <v>2123.184511511797</v>
       </c>
       <c r="Q21" t="n">
         <v>2371.055152615259</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>832.8315817042399</v>
+        <v>392.574822261449</v>
       </c>
       <c r="C22" t="n">
-        <v>832.8315817042399</v>
+        <v>222.3697043274382</v>
       </c>
       <c r="D22" t="n">
-        <v>832.8315817042399</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="E22" t="n">
-        <v>677.2727695634424</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="F22" t="n">
-        <v>519.9468347764152</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="G22" t="n">
-        <v>351.7832828192428</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="H22" t="n">
-        <v>197.1093763318967</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="I22" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J22" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="K22" t="n">
-        <v>158.8770705324135</v>
+        <v>158.8770705324134</v>
       </c>
       <c r="L22" t="n">
-        <v>336.1921232544489</v>
+        <v>336.1921232544486</v>
       </c>
       <c r="M22" t="n">
-        <v>536.3879794294578</v>
+        <v>536.3879794294573</v>
       </c>
       <c r="N22" t="n">
-        <v>733.1512786480431</v>
+        <v>733.1512786480425</v>
       </c>
       <c r="O22" t="n">
-        <v>908.3935224516667</v>
+        <v>908.3935224516659</v>
       </c>
       <c r="P22" t="n">
-        <v>1038.997665514104</v>
+        <v>1038.997665514103</v>
       </c>
       <c r="Q22" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="R22" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="S22" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="T22" t="n">
-        <v>832.8315817042399</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="U22" t="n">
-        <v>832.8315817042399</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="V22" t="n">
-        <v>832.8315817042399</v>
+        <v>811.8631631697672</v>
       </c>
       <c r="W22" t="n">
-        <v>832.8315817042399</v>
+        <v>811.8631631697672</v>
       </c>
       <c r="X22" t="n">
-        <v>832.8315817042399</v>
+        <v>577.7828409527502</v>
       </c>
       <c r="Y22" t="n">
-        <v>832.8315817042399</v>
+        <v>577.7828409527502</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1625.885998338852</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C23" t="n">
-        <v>1625.885998338852</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D23" t="n">
-        <v>1625.885998338852</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E23" t="n">
-        <v>1223.302473455396</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F23" t="n">
-        <v>806.4080349853741</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G23" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H23" t="n">
-        <v>75.96123154786348</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786348</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874839</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K23" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L23" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
         <v>2575.851817818622</v>
@@ -6010,31 +6010,31 @@
         <v>3549.201349130636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393174</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393174</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585819</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U23" t="n">
-        <v>3168.773180116327</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="V23" t="n">
-        <v>2826.666370819846</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W23" t="n">
-        <v>2455.667335788133</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X23" t="n">
-        <v>2066.21473072119</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y23" t="n">
-        <v>2026.380744050249</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786348</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786348</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786348</v>
+        <v>508.8153598298173</v>
       </c>
       <c r="L24" t="n">
-        <v>559.5273174461768</v>
+        <v>508.8153598298173</v>
       </c>
       <c r="M24" t="n">
-        <v>1187.298967072858</v>
+        <v>508.8153598298173</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.076938283417</v>
+        <v>1164.593331040376</v>
       </c>
       <c r="O24" t="n">
-        <v>1946.655703893605</v>
+        <v>1712.290612338714</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2117.911981055111</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2872.330773232676</v>
+        <v>1160.668936979818</v>
       </c>
       <c r="C25" t="n">
-        <v>2702.125655298665</v>
+        <v>990.4638190458068</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.805253895891</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.805253895891</v>
+        <v>679.2718938075241</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.805253895891</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.805253895891</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.805253895891</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.19415089026</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955797</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276969</v>
+        <v>844.2039549289404</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753469</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393174</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>3798.061577393174</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S25" t="n">
-        <v>3798.061577393174</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T25" t="n">
-        <v>3798.061577393174</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U25" t="n">
-        <v>3798.061577393174</v>
+        <v>1160.668936979818</v>
       </c>
       <c r="V25" t="n">
-        <v>3798.061577393174</v>
+        <v>1160.668936979818</v>
       </c>
       <c r="W25" t="n">
-        <v>3514.731175324351</v>
+        <v>1160.668936979818</v>
       </c>
       <c r="X25" t="n">
-        <v>3280.650853107334</v>
+        <v>1160.668936979818</v>
       </c>
       <c r="Y25" t="n">
-        <v>3057.538791923977</v>
+        <v>1160.668936979818</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2519.522183495031</v>
+        <v>1991.944699306122</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.346681997961</v>
+        <v>1598.769197809053</v>
       </c>
       <c r="D26" t="n">
-        <v>1740.905553214629</v>
+        <v>1213.32806902572</v>
       </c>
       <c r="E26" t="n">
-        <v>1338.322028331173</v>
+        <v>810.7445441422649</v>
       </c>
       <c r="F26" t="n">
-        <v>921.4275898611513</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="G26" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H26" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="I26" t="n">
         <v>75.96123154786348</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L26" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M26" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N26" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O26" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130637</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q26" t="n">
         <v>3798.061577393174</v>
@@ -6256,22 +6256,22 @@
         <v>3798.061577393174</v>
       </c>
       <c r="T26" t="n">
-        <v>3798.061577393174</v>
+        <v>3577.208601638124</v>
       </c>
       <c r="U26" t="n">
-        <v>3798.061577393174</v>
+        <v>3577.208601638124</v>
       </c>
       <c r="V26" t="n">
-        <v>3798.061577393174</v>
+        <v>3235.101792341642</v>
       </c>
       <c r="W26" t="n">
-        <v>3705.96024335277</v>
+        <v>2864.10275730993</v>
       </c>
       <c r="X26" t="n">
-        <v>3316.507638285826</v>
+        <v>2474.650152242986</v>
       </c>
       <c r="Y26" t="n">
-        <v>2920.016929206427</v>
+        <v>2392.439445017519</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>75.96123154786348</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786348</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786348</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="L27" t="n">
-        <v>559.5273174461768</v>
+        <v>672.6422996659041</v>
       </c>
       <c r="M27" t="n">
-        <v>1187.298967072858</v>
+        <v>1290.877732683045</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.076938283417</v>
+        <v>1946.655703893605</v>
       </c>
       <c r="O27" t="n">
         <v>1946.655703893605</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>999.105493861789</v>
+        <v>90.47188588837369</v>
       </c>
       <c r="C28" t="n">
-        <v>828.9003759277782</v>
+        <v>90.47188588837369</v>
       </c>
       <c r="D28" t="n">
-        <v>673.267262830293</v>
+        <v>90.47188588837369</v>
       </c>
       <c r="E28" t="n">
-        <v>517.7084506894955</v>
+        <v>90.47188588837369</v>
       </c>
       <c r="F28" t="n">
-        <v>360.3825159024685</v>
+        <v>90.47188588837369</v>
       </c>
       <c r="G28" t="n">
-        <v>192.3997662128395</v>
+        <v>90.47188588837369</v>
       </c>
       <c r="H28" t="n">
         <v>75.96123154786348</v>
@@ -6408,28 +6408,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R28" t="n">
-        <v>1222.217555045146</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S28" t="n">
-        <v>1222.217555045146</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T28" t="n">
-        <v>1222.217555045146</v>
+        <v>875.9555466311605</v>
       </c>
       <c r="U28" t="n">
-        <v>1222.217555045146</v>
+        <v>590.5315532845664</v>
       </c>
       <c r="V28" t="n">
-        <v>1222.217555045146</v>
+        <v>324.5522081053906</v>
       </c>
       <c r="W28" t="n">
-        <v>1222.217555045146</v>
+        <v>324.5522081053906</v>
       </c>
       <c r="X28" t="n">
-        <v>1222.217555045146</v>
+        <v>90.47188588837369</v>
       </c>
       <c r="Y28" t="n">
-        <v>999.105493861789</v>
+        <v>90.47188588837369</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1269.229275930393</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C29" t="n">
-        <v>876.0537744333237</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D29" t="n">
-        <v>490.6126456499915</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E29" t="n">
-        <v>490.6126456499915</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F29" t="n">
-        <v>490.6126456499915</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G29" t="n">
-        <v>490.6126456499915</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H29" t="n">
         <v>190.9807864236407</v>
@@ -6463,19 +6463,19 @@
         <v>75.96123154786346</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874839</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K29" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130498</v>
       </c>
       <c r="L29" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M29" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O29" t="n">
         <v>3115.769891361771</v>
@@ -6490,25 +6490,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585819</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116326</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819845</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788132</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721189</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y29" t="n">
-        <v>1669.72402164179</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>75.96123154786346</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786346</v>
+        <v>395.7003776100899</v>
       </c>
       <c r="L30" t="n">
-        <v>559.5273174461768</v>
+        <v>395.7003776100899</v>
       </c>
       <c r="M30" t="n">
-        <v>1187.298967072858</v>
+        <v>395.7003776100899</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.076938283417</v>
+        <v>1051.478348820649</v>
       </c>
       <c r="O30" t="n">
-        <v>1946.655703893605</v>
+        <v>1643.461608383241</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2109.648669052926</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2663.002316357357</v>
+        <v>388.845978475688</v>
       </c>
       <c r="C31" t="n">
-        <v>2663.002316357357</v>
+        <v>388.845978475688</v>
       </c>
       <c r="D31" t="n">
-        <v>2663.002316357357</v>
+        <v>388.845978475688</v>
       </c>
       <c r="E31" t="n">
-        <v>2663.002316357357</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F31" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G31" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H31" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I31" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J31" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K31" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L31" t="n">
-        <v>2968.19415089026</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M31" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955797</v>
       </c>
       <c r="N31" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289404</v>
       </c>
       <c r="O31" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P31" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q31" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>3686.359411909727</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S31" t="n">
-        <v>3488.271420568132</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T31" t="n">
-        <v>3253.711577637593</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U31" t="n">
-        <v>2968.287584290999</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="V31" t="n">
-        <v>2702.308239111823</v>
+        <v>1091.464721452829</v>
       </c>
       <c r="W31" t="n">
-        <v>2663.002316357357</v>
+        <v>808.1343193840063</v>
       </c>
       <c r="X31" t="n">
-        <v>2663.002316357357</v>
+        <v>574.0539971669893</v>
       </c>
       <c r="Y31" t="n">
-        <v>2663.002316357357</v>
+        <v>574.0539971669893</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1269.229275930393</v>
+        <v>1898.51767320724</v>
       </c>
       <c r="C32" t="n">
-        <v>876.0537744333237</v>
+        <v>1505.34217171017</v>
       </c>
       <c r="D32" t="n">
-        <v>490.6126456499915</v>
+        <v>1119.901042926838</v>
       </c>
       <c r="E32" t="n">
-        <v>393.8501056722426</v>
+        <v>1119.901042926838</v>
       </c>
       <c r="F32" t="n">
-        <v>393.8501056722426</v>
+        <v>703.0066044568158</v>
       </c>
       <c r="G32" t="n">
-        <v>393.8501056722426</v>
+        <v>290.4486751436843</v>
       </c>
       <c r="H32" t="n">
         <v>75.96123154786346</v>
@@ -6700,7 +6700,7 @@
         <v>75.96123154786346</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K32" t="n">
         <v>705.31081511305</v>
@@ -6709,7 +6709,7 @@
         <v>1292.177839612518</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N32" t="n">
         <v>2575.851817818622</v>
@@ -6727,25 +6727,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T32" t="n">
-        <v>3424.477523585819</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.773180116326</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V32" t="n">
-        <v>2826.666370819845</v>
+        <v>3455.954768096692</v>
       </c>
       <c r="W32" t="n">
-        <v>2455.667335788132</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X32" t="n">
-        <v>2066.214730721189</v>
+        <v>2695.503127998036</v>
       </c>
       <c r="Y32" t="n">
-        <v>1669.72402164179</v>
+        <v>2299.012418918637</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>75.96123154786346</v>
       </c>
       <c r="L33" t="n">
-        <v>559.5273174461768</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="M33" t="n">
-        <v>1187.298967072858</v>
+        <v>280.9863166106101</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.076938283417</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O33" t="n">
-        <v>1946.655703893605</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3512.637584046579</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="C34" t="n">
-        <v>3342.432466112568</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="D34" t="n">
-        <v>3186.799353015083</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="E34" t="n">
-        <v>3031.240540874285</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="F34" t="n">
-        <v>2873.914606087258</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="G34" t="n">
-        <v>2705.931856397629</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H34" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I34" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J34" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K34" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L34" t="n">
-        <v>2968.19415089026</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M34" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N34" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O34" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P34" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q34" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R34" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S34" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T34" t="n">
-        <v>3798.061577393173</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U34" t="n">
-        <v>3512.637584046579</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V34" t="n">
-        <v>3512.637584046579</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W34" t="n">
-        <v>3512.637584046579</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X34" t="n">
-        <v>3512.637584046579</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="Y34" t="n">
-        <v>3512.637584046579</v>
+        <v>152.9239715200144</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2519.522183495031</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.346681997961</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D35" t="n">
-        <v>1740.905553214629</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E35" t="n">
-        <v>1338.322028331173</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F35" t="n">
-        <v>921.4275898611513</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G35" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I35" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130498</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6967,22 +6967,22 @@
         <v>3798.061577393172</v>
       </c>
       <c r="T35" t="n">
-        <v>3798.061577393172</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="U35" t="n">
-        <v>3798.061577393172</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="V35" t="n">
-        <v>3798.061577393172</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W35" t="n">
-        <v>3705.96024335277</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X35" t="n">
-        <v>3316.507638285826</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y35" t="n">
-        <v>2920.016929206427</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786345</v>
+        <v>560.0314717468598</v>
       </c>
       <c r="L36" t="n">
-        <v>559.5273174461767</v>
+        <v>1112.463940578416</v>
       </c>
       <c r="M36" t="n">
-        <v>774.3574500920644</v>
+        <v>1820.599410870755</v>
       </c>
       <c r="N36" t="n">
-        <v>1430.135421302623</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="O36" t="n">
-        <v>1946.655703893605</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.2382098659697</v>
+        <v>405.8030553067869</v>
       </c>
       <c r="C37" t="n">
-        <v>956.2382098659697</v>
+        <v>405.8030553067869</v>
       </c>
       <c r="D37" t="n">
-        <v>846.0277684097882</v>
+        <v>405.8030553067869</v>
       </c>
       <c r="E37" t="n">
-        <v>690.4689562689907</v>
+        <v>250.2442431659894</v>
       </c>
       <c r="F37" t="n">
-        <v>533.1430214819636</v>
+        <v>92.91830837896231</v>
       </c>
       <c r="G37" t="n">
-        <v>365.1602717923346</v>
+        <v>87.15829400933012</v>
       </c>
       <c r="H37" t="n">
-        <v>212.0938618291478</v>
+        <v>87.15829400933012</v>
       </c>
       <c r="I37" t="n">
         <v>87.15829400933012</v>
@@ -7119,28 +7119,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R37" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S37" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T37" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="U37" t="n">
-        <v>1222.217555045145</v>
+        <v>825.0913962151051</v>
       </c>
       <c r="V37" t="n">
-        <v>956.2382098659697</v>
+        <v>825.0913962151051</v>
       </c>
       <c r="W37" t="n">
-        <v>956.2382098659697</v>
+        <v>825.0913962151051</v>
       </c>
       <c r="X37" t="n">
-        <v>956.2382098659697</v>
+        <v>591.0110739980881</v>
       </c>
       <c r="Y37" t="n">
-        <v>956.2382098659697</v>
+        <v>591.0110739980881</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1665.719985009791</v>
+        <v>1745.786595154935</v>
       </c>
       <c r="C38" t="n">
-        <v>1272.544483512722</v>
+        <v>1352.611093657866</v>
       </c>
       <c r="D38" t="n">
-        <v>887.1033547293894</v>
+        <v>967.1699648745337</v>
       </c>
       <c r="E38" t="n">
-        <v>887.1033547293894</v>
+        <v>967.1699648745337</v>
       </c>
       <c r="F38" t="n">
-        <v>470.2089162593671</v>
+        <v>550.2755264045114</v>
       </c>
       <c r="G38" t="n">
-        <v>75.96123154786345</v>
+        <v>137.71759709138</v>
       </c>
       <c r="H38" t="n">
-        <v>75.96123154786345</v>
+        <v>137.71759709138</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874839</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L38" t="n">
         <v>1292.177839612517</v>
@@ -7192,34 +7192,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340868</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T38" t="n">
-        <v>3424.477523585818</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="U38" t="n">
-        <v>3168.773180116325</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="V38" t="n">
-        <v>2826.666370819844</v>
+        <v>3303.223690044387</v>
       </c>
       <c r="W38" t="n">
-        <v>2455.667335788131</v>
+        <v>2932.224655012675</v>
       </c>
       <c r="X38" t="n">
-        <v>2066.214730721188</v>
+        <v>2542.772049945731</v>
       </c>
       <c r="Y38" t="n">
-        <v>2066.214730721188</v>
+        <v>2146.281340866332</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>508.8153598298173</v>
       </c>
       <c r="L39" t="n">
-        <v>146.5858004653832</v>
+        <v>992.3814457281305</v>
       </c>
       <c r="M39" t="n">
-        <v>774.3574500920644</v>
+        <v>1696.499101399443</v>
       </c>
       <c r="N39" t="n">
-        <v>1430.135421302623</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O39" t="n">
-        <v>1946.655703893605</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P39" t="n">
         <v>2352.277072610002</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>846.0277684097882</v>
+        <v>590.5315532845661</v>
       </c>
       <c r="C40" t="n">
-        <v>846.0277684097882</v>
+        <v>590.5315532845661</v>
       </c>
       <c r="D40" t="n">
-        <v>846.0277684097882</v>
+        <v>590.5315532845661</v>
       </c>
       <c r="E40" t="n">
-        <v>690.4689562689907</v>
+        <v>526.2054838443372</v>
       </c>
       <c r="F40" t="n">
-        <v>533.1430214819636</v>
+        <v>368.8795490573102</v>
       </c>
       <c r="G40" t="n">
-        <v>365.1602717923346</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="H40" t="n">
-        <v>212.0938618291478</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I40" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K40" t="n">
         <v>188.6896288950475</v>
@@ -7356,28 +7356,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R40" t="n">
-        <v>1129.358170478611</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S40" t="n">
-        <v>1129.358170478611</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T40" t="n">
-        <v>1129.358170478611</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="U40" t="n">
-        <v>1129.358170478611</v>
+        <v>590.5315532845661</v>
       </c>
       <c r="V40" t="n">
-        <v>1129.358170478611</v>
+        <v>590.5315532845661</v>
       </c>
       <c r="W40" t="n">
-        <v>846.0277684097882</v>
+        <v>590.5315532845661</v>
       </c>
       <c r="X40" t="n">
-        <v>846.0277684097882</v>
+        <v>590.5315532845661</v>
       </c>
       <c r="Y40" t="n">
-        <v>846.0277684097882</v>
+        <v>590.5315532845661</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.522183495031</v>
+        <v>1713.78875268483</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.346681997961</v>
+        <v>1713.78875268483</v>
       </c>
       <c r="D41" t="n">
-        <v>1740.905553214629</v>
+        <v>1328.347623901498</v>
       </c>
       <c r="E41" t="n">
-        <v>1338.322028331173</v>
+        <v>925.7640990180421</v>
       </c>
       <c r="F41" t="n">
-        <v>921.4275898611513</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="G41" t="n">
         <v>508.8696605480199</v>
@@ -7408,13 +7408,13 @@
         <v>190.9807864236407</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874842</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612517</v>
@@ -7429,34 +7429,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S41" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T41" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="U41" t="n">
-        <v>3798.061577393172</v>
+        <v>3613.332656870763</v>
       </c>
       <c r="V41" t="n">
-        <v>3798.061577393172</v>
+        <v>3271.225847574281</v>
       </c>
       <c r="W41" t="n">
-        <v>3705.96024335277</v>
+        <v>2900.226812542569</v>
       </c>
       <c r="X41" t="n">
-        <v>3316.507638285826</v>
+        <v>2510.774207475626</v>
       </c>
       <c r="Y41" t="n">
-        <v>2920.016929206427</v>
+        <v>2114.283498396227</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K42" t="n">
-        <v>75.96123154786345</v>
+        <v>516.2949829412062</v>
       </c>
       <c r="L42" t="n">
-        <v>559.5273174461767</v>
+        <v>1068.727451772762</v>
       </c>
       <c r="M42" t="n">
-        <v>1187.298967072858</v>
+        <v>1696.499101399443</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.135421302623</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O42" t="n">
-        <v>1946.655703893605</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P42" t="n">
         <v>2352.277072610002</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>255.1410436989591</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="C43" t="n">
-        <v>255.1410436989591</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="D43" t="n">
-        <v>255.1410436989591</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="E43" t="n">
-        <v>255.1410436989591</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F43" t="n">
-        <v>255.1410436989591</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G43" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H43" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I43" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K43" t="n">
         <v>188.6896288950475</v>
@@ -7593,28 +7593,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R43" t="n">
-        <v>1196.324932501043</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S43" t="n">
-        <v>998.2369411594486</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T43" t="n">
-        <v>763.6770982289098</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U43" t="n">
-        <v>478.2531048823158</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V43" t="n">
-        <v>478.2531048823158</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W43" t="n">
-        <v>478.2531048823158</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X43" t="n">
-        <v>478.2531048823158</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="Y43" t="n">
-        <v>255.1410436989591</v>
+        <v>152.9239715200144</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2287.970278274183</v>
+        <v>2519.522183495031</v>
       </c>
       <c r="C44" t="n">
         <v>2126.346681997961</v>
@@ -7648,7 +7648,7 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K44" t="n">
         <v>705.3108151130497</v>
@@ -7669,31 +7669,31 @@
         <v>3549.201349130635</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="V44" t="n">
         <v>3455.954768096691</v>
       </c>
       <c r="W44" t="n">
-        <v>3084.955733064979</v>
+        <v>3084.955733064978</v>
       </c>
       <c r="X44" t="n">
-        <v>3084.955733064979</v>
+        <v>2916.01289257443</v>
       </c>
       <c r="Y44" t="n">
-        <v>2688.46502398558</v>
+        <v>2519.522183495031</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K45" t="n">
-        <v>75.96123154786345</v>
+        <v>508.8153598298173</v>
       </c>
       <c r="L45" t="n">
-        <v>146.5858004653832</v>
+        <v>992.3814457281305</v>
       </c>
       <c r="M45" t="n">
-        <v>774.3574500920644</v>
+        <v>1696.499101399443</v>
       </c>
       <c r="N45" t="n">
-        <v>1430.135421302623</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O45" t="n">
-        <v>1946.655703893605</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P45" t="n">
         <v>2352.277072610002</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="C46" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="D46" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="E46" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="F46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K46" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L46" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M46" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N46" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O46" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P46" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T46" t="n">
-        <v>3798.061577393173</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U46" t="n">
-        <v>3512.637584046578</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V46" t="n">
-        <v>3512.637584046578</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W46" t="n">
-        <v>3229.307181977756</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X46" t="n">
-        <v>2995.226859760739</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="Y46" t="n">
-        <v>2772.114798577382</v>
+        <v>152.9239715200144</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>290.5921503773111</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
@@ -8072,7 +8072,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,10 +8303,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8534,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>196.5449382119064</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M12" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>373.1055958271594</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>219.1622381308311</v>
       </c>
       <c r="O18" t="n">
-        <v>312.3478705934602</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>66.67572130591978</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9482,13 +9482,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>72.33963800151609</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>502.1187786660893</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9497,10 +9497,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>107.9748517473664</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.34618391493267</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>197.3125746567553</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248226</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>716.8673574201616</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>197.3125746567553</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995587</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,25 +10193,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248226</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>197.3125746567553</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995587</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248232</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>299.4831675672378</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>197.3125746567553</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>309.3872560350571</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>344.7923240171547</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>161.3982952584533</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10916,13 +10916,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11150,16 +11150,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>330.6614605610004</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995592</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>161.3982952584533</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11390,13 +11390,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.0926368599559</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.60371089983619</v>
+        <v>285.7001539355108</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23320,7 +23320,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23548,22 +23548,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>112.4408428809523</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>66.47955495861629</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>23.65888910788262</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -23712,13 +23712,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>291.8784202912262</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>408.8313869843473</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>318.7966226942565</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>25.06600571167707</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.85416395437055</v>
+        <v>160.296822096844</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>153.1271674224727</v>
       </c>
       <c r="I19" t="n">
-        <v>129.0690572509242</v>
+        <v>129.0690572509243</v>
       </c>
       <c r="J19" t="n">
-        <v>23.73998494902337</v>
+        <v>23.73998494902343</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>118.6333759660428</v>
+        <v>118.6333759660429</v>
       </c>
       <c r="S19" t="n">
-        <v>199.2264929501066</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.9790380929424</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>84.85602711388552</v>
+        <v>22.00248743470439</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>408.8313869843473</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>318.7966226942565</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>25.06600571167706</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.85416395437055</v>
+        <v>160.296822096844</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>206.3719020796541</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4819164376007</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.1271674224727</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>129.0690572509243</v>
       </c>
       <c r="J22" t="n">
-        <v>23.73998494902336</v>
+        <v>23.73998494902342</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>118.6333759660428</v>
+        <v>118.6333759660429</v>
       </c>
       <c r="S22" t="n">
         <v>199.2264929501066</v>
       </c>
       <c r="T22" t="n">
-        <v>18.13342027043123</v>
+        <v>232.9790380929424</v>
       </c>
       <c r="U22" t="n">
         <v>282.5795167355755</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>27.71519955574581</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
         <v>113.8693593270194</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>100.6766793060384</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>353.0901551843734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>104.2595845777644</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>11.08509183685199</v>
@@ -24420,19 +24420,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>221.6366215284532</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>276.1087239813957</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>311.1372018353925</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>36.26159654522867</v>
+        <v>137.1701980664498</v>
       </c>
       <c r="I28" t="n">
         <v>123.6862121416195</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>18.07444474904811</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>214.5460386330581</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24846,10 +24846,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.3029221927327</v>
@@ -24861,7 +24861,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.08509183685199</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.8742464709901</v>
       </c>
       <c r="W31" t="n">
-        <v>241.5842345212129</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>302.7627750566496</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>102.3674162232727</v>
       </c>
       <c r="I32" t="n">
         <v>113.8693593270195</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.10980962030328</v>
       </c>
       <c r="H34" t="n">
-        <v>97.95040938683469</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
         <v>123.6862121416195</v>
@@ -25128,16 +25128,16 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>66.17382526874167</v>
       </c>
       <c r="U35" t="n">
         <v>253.1473000347972</v>
@@ -25216,7 +25216,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>276.108723981397</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>44.96844492489076</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.6005079667968</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>196.1071114281788</v>
@@ -25368,16 +25368,16 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>18.12714215561152</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>52.73055743893813</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>90.32041527356287</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,13 +25566,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.65435310774257</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>221.4694359893925</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>276.108723981397</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>77.81011144696009</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
         <v>151.5357458635549</v>
@@ -25809,7 +25809,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.95144750995095</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>229.2363861686393</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>218.3046669306308</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.24948926971135</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26034,7 +26034,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>79.55956286672735</v>
       </c>
       <c r="G46" t="n">
         <v>166.3029221927327</v>
@@ -26046,7 +26046,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>597946.5720621386</v>
+        <v>597946.5720621385</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>597946.5720621386</v>
+        <v>597946.5720621387</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>624237.4584864348</v>
+        <v>624237.4584864344</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>624237.4584864347</v>
+        <v>624237.4584864344</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>676760.6607913583</v>
+        <v>676760.6607913582</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676760.6607913583</v>
+        <v>676760.6607913584</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676760.6607913584</v>
+        <v>676760.6607913582</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676760.6607913582</v>
+        <v>676760.6607913583</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676760.6607913581</v>
+        <v>676760.6607913582</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676760.6607913581</v>
+        <v>676760.6607913584</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676760.6607913582</v>
+        <v>676760.6607913583</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>414764.0096147206</v>
+      </c>
+      <c r="C2" t="n">
         <v>414764.0096147205</v>
       </c>
-      <c r="C2" t="n">
-        <v>414764.0096147206</v>
-      </c>
       <c r="D2" t="n">
-        <v>414764.0096147205</v>
+        <v>414764.0096147207</v>
       </c>
       <c r="E2" t="n">
-        <v>292612.1522857274</v>
+        <v>292612.1522857275</v>
       </c>
       <c r="F2" t="n">
-        <v>292612.1522857274</v>
+        <v>292612.1522857275</v>
       </c>
       <c r="G2" t="n">
-        <v>305477.9052167659</v>
+        <v>305477.9052167656</v>
       </c>
       <c r="H2" t="n">
-        <v>305477.9052167659</v>
+        <v>305477.9052167656</v>
       </c>
       <c r="I2" t="n">
         <v>331180.7488978989</v>
       </c>
       <c r="J2" t="n">
+        <v>331180.7488978991</v>
+      </c>
+      <c r="K2" t="n">
+        <v>331180.7488978988</v>
+      </c>
+      <c r="L2" t="n">
         <v>331180.7488978989</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>331180.7488978989</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>331180.7488978987</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>331180.7488978988</v>
       </c>
-      <c r="N2" t="n">
-        <v>331180.7488978988</v>
-      </c>
-      <c r="O2" t="n">
-        <v>331180.7488978987</v>
-      </c>
       <c r="P2" t="n">
-        <v>331180.7488978987</v>
+        <v>331180.7488978989</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54449.60099636413</v>
+        <v>54449.60099636359</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105381.0203487486</v>
+        <v>105381.0203487491</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.713112695</v>
+        <v>203163.7131126951</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13889.96518695394</v>
+        <v>13889.9651869538</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>121801.4438820496</v>
       </c>
       <c r="E4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="F4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="G4" t="n">
-        <v>578.1775239716781</v>
+        <v>578.1775239716778</v>
       </c>
       <c r="H4" t="n">
-        <v>578.1775239716781</v>
+        <v>578.1775239716777</v>
       </c>
       <c r="I4" t="n">
         <v>636.8259559912971</v>
@@ -26447,7 +26447,7 @@
         <v>636.8259559912971</v>
       </c>
       <c r="L4" t="n">
-        <v>636.8259559912971</v>
+        <v>636.825955991297</v>
       </c>
       <c r="M4" t="n">
         <v>636.825955991297</v>
@@ -26484,13 +26484,13 @@
         <v>47210.53705512779</v>
       </c>
       <c r="G5" t="n">
-        <v>51802.95469354862</v>
+        <v>51802.95469354857</v>
       </c>
       <c r="H5" t="n">
-        <v>51802.95469354862</v>
+        <v>51802.95469354857</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357457</v>
+        <v>60977.55903357456</v>
       </c>
       <c r="J5" t="n">
         <v>60977.55903357457</v>
@@ -26505,10 +26505,10 @@
         <v>60977.55903357454</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="P5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48094.92674228566</v>
+        <v>-48094.92674228559</v>
       </c>
       <c r="C6" t="n">
-        <v>212124.4286775432</v>
+        <v>212124.4286775431</v>
       </c>
       <c r="D6" t="n">
-        <v>212124.4286775431</v>
+        <v>212124.4286775433</v>
       </c>
       <c r="E6" t="n">
-        <v>244852.7946231434</v>
+        <v>244321.6995912783</v>
       </c>
       <c r="F6" t="n">
-        <v>244852.7946231434</v>
+        <v>244321.6995912783</v>
       </c>
       <c r="G6" t="n">
-        <v>198647.1720028815</v>
+        <v>198172.0150272386</v>
       </c>
       <c r="H6" t="n">
-        <v>253096.7729992456</v>
+        <v>252621.6160236022</v>
       </c>
       <c r="I6" t="n">
-        <v>164185.3435595845</v>
+        <v>163821.9380782065</v>
       </c>
       <c r="J6" t="n">
-        <v>66402.65079563804</v>
+        <v>66039.24531426065</v>
       </c>
       <c r="K6" t="n">
-        <v>269566.3639083331</v>
+        <v>269202.9584269555</v>
       </c>
       <c r="L6" t="n">
-        <v>269566.3639083328</v>
+        <v>269202.9584269556</v>
       </c>
       <c r="M6" t="n">
-        <v>269566.363908333</v>
+        <v>269202.9584269556</v>
       </c>
       <c r="N6" t="n">
-        <v>269566.363908333</v>
+        <v>269202.9584269554</v>
       </c>
       <c r="O6" t="n">
-        <v>255676.3987213789</v>
+        <v>255312.9932400018</v>
       </c>
       <c r="P6" t="n">
-        <v>269566.3639083328</v>
+        <v>269202.9584269556</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671314</v>
+        <v>49.68556691671267</v>
       </c>
       <c r="H3" t="n">
-        <v>49.68556691671318</v>
+        <v>49.68556691671269</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980883</v>
@@ -26779,7 +26779,7 @@
         <v>148.9460117980881</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
         <v>776.489096301444</v>
@@ -26804,13 +26804,13 @@
         <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>834.2073903744124</v>
+        <v>834.2073903744118</v>
       </c>
       <c r="H4" t="n">
-        <v>834.2073903744124</v>
+        <v>834.2073903744118</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482934</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="J4" t="n">
         <v>949.5153943482934</v>
@@ -26825,13 +26825,13 @@
         <v>949.5153943482931</v>
       </c>
       <c r="N4" t="n">
+        <v>949.5153943482933</v>
+      </c>
+      <c r="O4" t="n">
+        <v>949.5153943482933</v>
+      </c>
+      <c r="P4" t="n">
         <v>949.5153943482931</v>
-      </c>
-      <c r="O4" t="n">
-        <v>949.5153943482931</v>
-      </c>
-      <c r="P4" t="n">
-        <v>949.5153943482932</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671314</v>
+        <v>49.68556691671266</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99.26044488137507</v>
+        <v>99.26044488137556</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.71829407296848</v>
+        <v>57.71829407296791</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.308003973881</v>
+        <v>115.3080039738815</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296848</v>
+        <v>57.71829407296791</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296848</v>
+        <v>57.71829407296791</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>106.3235700659086</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>265.9525126944011</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>92.02589725180511</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>125.2166954771692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27827,22 +27827,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>66.12369447580232</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>17.63430893883924</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>245.1781945391316</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28022,19 +28022,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>69.1032730471666</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>106.0918628181351</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1997409725294999</v>
+        <v>0.199740972529498</v>
       </c>
       <c r="H17" t="n">
-        <v>2.045597234917742</v>
+        <v>2.045597234917722</v>
       </c>
       <c r="I17" t="n">
-        <v>7.700513843443553</v>
+        <v>7.700513843443479</v>
       </c>
       <c r="J17" t="n">
-        <v>16.95276536722566</v>
+        <v>16.9527653672255</v>
       </c>
       <c r="K17" t="n">
-        <v>25.40780073439939</v>
+        <v>25.40780073439915</v>
       </c>
       <c r="L17" t="n">
-        <v>31.52062352244909</v>
+        <v>31.52062352244878</v>
       </c>
       <c r="M17" t="n">
-        <v>35.07276704267058</v>
+        <v>35.07276704267024</v>
       </c>
       <c r="N17" t="n">
-        <v>35.64028108087003</v>
+        <v>35.64028108086968</v>
       </c>
       <c r="O17" t="n">
-        <v>33.65410678527981</v>
+        <v>33.65410678527948</v>
       </c>
       <c r="P17" t="n">
-        <v>28.72300152595777</v>
+        <v>28.7230015259575</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.56977794724505</v>
+        <v>21.56977794724484</v>
       </c>
       <c r="R17" t="n">
-        <v>12.54697886565621</v>
+        <v>12.54697886565609</v>
       </c>
       <c r="S17" t="n">
-        <v>4.551597411515984</v>
+        <v>4.551597411515941</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8743661072478863</v>
+        <v>0.874366107247878</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01597927780235999</v>
+        <v>0.01597927780235984</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1068708420472698</v>
+        <v>0.1068708420472688</v>
       </c>
       <c r="H18" t="n">
-        <v>1.032147342930211</v>
+        <v>1.032147342930201</v>
       </c>
       <c r="I18" t="n">
-        <v>3.679544342416964</v>
+        <v>3.679544342416929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>17.25729733181708</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>23.20456594539491</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -32329,25 +32329,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>25.42729196727275</v>
       </c>
       <c r="P18" t="n">
-        <v>20.40764351339488</v>
+        <v>20.40764351339468</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>13.64196924098118</v>
       </c>
       <c r="R18" t="n">
-        <v>6.635366842198033</v>
+        <v>6.635366842197969</v>
       </c>
       <c r="S18" t="n">
-        <v>1.985079017851698</v>
+        <v>1.985079017851679</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4307644905326355</v>
+        <v>0.4307644905326314</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007030976450478277</v>
+        <v>0.007030976450478211</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08959692394817123</v>
+        <v>0.08959692394817037</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7965981056482866</v>
+        <v>0.7965981056482789</v>
       </c>
       <c r="I19" t="n">
-        <v>2.694423858368641</v>
+        <v>2.694423858368615</v>
       </c>
       <c r="J19" t="n">
-        <v>6.334502523135706</v>
+        <v>6.334502523135645</v>
       </c>
       <c r="K19" t="n">
-        <v>10.40953352779662</v>
+        <v>10.40953352779652</v>
       </c>
       <c r="L19" t="n">
-        <v>13.32061903862175</v>
+        <v>13.32061903862162</v>
       </c>
       <c r="M19" t="n">
-        <v>14.04472508762106</v>
+        <v>14.04472508762092</v>
       </c>
       <c r="N19" t="n">
-        <v>13.71077291654152</v>
+        <v>13.71077291654139</v>
       </c>
       <c r="O19" t="n">
-        <v>12.66411794132879</v>
+        <v>12.66411794132867</v>
       </c>
       <c r="P19" t="n">
-        <v>10.83634069278609</v>
+        <v>10.83634069278598</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.502520604423684</v>
+        <v>7.502520604423612</v>
       </c>
       <c r="R19" t="n">
-        <v>4.028603507705952</v>
+        <v>4.028603507705914</v>
       </c>
       <c r="S19" t="n">
-        <v>1.561430029169493</v>
+        <v>1.561430029169478</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3828232205058225</v>
+        <v>0.3828232205058187</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004887104942627527</v>
+        <v>0.00488710494262748</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1997409725295001</v>
+        <v>0.1997409725294981</v>
       </c>
       <c r="H20" t="n">
-        <v>2.045597234917743</v>
+        <v>2.045597234917723</v>
       </c>
       <c r="I20" t="n">
-        <v>7.700513843443558</v>
+        <v>7.700513843443483</v>
       </c>
       <c r="J20" t="n">
-        <v>16.95276536722567</v>
+        <v>16.9527653672255</v>
       </c>
       <c r="K20" t="n">
-        <v>25.40780073439941</v>
+        <v>25.40780073439916</v>
       </c>
       <c r="L20" t="n">
-        <v>31.52062352244911</v>
+        <v>31.5206235224488</v>
       </c>
       <c r="M20" t="n">
-        <v>35.07276704267061</v>
+        <v>35.07276704267026</v>
       </c>
       <c r="N20" t="n">
-        <v>35.64028108087005</v>
+        <v>35.6402810808697</v>
       </c>
       <c r="O20" t="n">
-        <v>33.65410678527983</v>
+        <v>33.6541067852795</v>
       </c>
       <c r="P20" t="n">
-        <v>28.72300152595779</v>
+        <v>28.72300152595751</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.56977794724506</v>
+        <v>21.56977794724485</v>
       </c>
       <c r="R20" t="n">
-        <v>12.54697886565622</v>
+        <v>12.5469788656561</v>
       </c>
       <c r="S20" t="n">
-        <v>4.551597411515988</v>
+        <v>4.551597411515942</v>
       </c>
       <c r="T20" t="n">
-        <v>0.874366107247887</v>
+        <v>0.8743661072478783</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01597927780236</v>
+        <v>0.01597927780235985</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1068708420472699</v>
+        <v>0.1068708420472688</v>
       </c>
       <c r="H21" t="n">
-        <v>1.032147342930212</v>
+        <v>1.032147342930201</v>
       </c>
       <c r="I21" t="n">
-        <v>3.679544342416967</v>
+        <v>3.679544342416931</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>17.25729733181726</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32563,28 +32563,28 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>27.79532483579383</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>25.42729196727277</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>20.40764351339469</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.64196924098133</v>
+        <v>13.64196924098119</v>
       </c>
       <c r="R21" t="n">
-        <v>6.635366842198038</v>
+        <v>6.635366842197973</v>
       </c>
       <c r="S21" t="n">
-        <v>1.9850790178517</v>
+        <v>1.98507901785168</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4307644905326358</v>
+        <v>0.4307644905326315</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007030976450478283</v>
+        <v>0.007030976450478213</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0895969239481713</v>
+        <v>0.08959692394817041</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7965981056482871</v>
+        <v>0.7965981056482794</v>
       </c>
       <c r="I22" t="n">
-        <v>2.694423858368643</v>
+        <v>2.694423858368617</v>
       </c>
       <c r="J22" t="n">
-        <v>6.33450252313571</v>
+        <v>6.334502523135647</v>
       </c>
       <c r="K22" t="n">
-        <v>10.40953352779663</v>
+        <v>10.40953352779652</v>
       </c>
       <c r="L22" t="n">
-        <v>13.32061903862176</v>
+        <v>13.32061903862163</v>
       </c>
       <c r="M22" t="n">
-        <v>14.04472508762107</v>
+        <v>14.04472508762093</v>
       </c>
       <c r="N22" t="n">
-        <v>13.71077291654153</v>
+        <v>13.7107729165414</v>
       </c>
       <c r="O22" t="n">
-        <v>12.6641179413288</v>
+        <v>12.66411794132867</v>
       </c>
       <c r="P22" t="n">
-        <v>10.8363406927861</v>
+        <v>10.83634069278599</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.502520604423689</v>
+        <v>7.502520604423616</v>
       </c>
       <c r="R22" t="n">
-        <v>4.028603507705956</v>
+        <v>4.028603507705916</v>
       </c>
       <c r="S22" t="n">
-        <v>1.561430029169494</v>
+        <v>1.561430029169478</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3828232205058227</v>
+        <v>0.3828232205058189</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00488710494262753</v>
+        <v>0.004887104942627483</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>31.49191788621886</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -33025,10 +33025,10 @@
         <v>11.03043577938673</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886927</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085109</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595812</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>19.89131833031828</v>
@@ -33265,7 +33265,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085109</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -33277,13 +33277,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>76.22522926425371</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>61.17746661948271</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595812</v>
+        <v>8.346779800187051</v>
       </c>
       <c r="R30" t="n">
         <v>19.89131833031828</v>
@@ -33499,10 +33499,10 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085103</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -33511,13 +33511,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>83.32405239259269</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>76.22522926425363</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>61.17746661948264</v>
       </c>
       <c r="Q33" t="n">
         <v>40.89551629595807</v>
@@ -33736,16 +33736,16 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>51.73344638085103</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>69.56200296287123</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>81.175576429958</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -33973,16 +33973,16 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085103</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>77.11717782286007</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>19.89131833031826</v>
@@ -34213,10 +34213,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085103</v>
+        <v>7.555174859988767</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>69.56200296287123</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>19.89131833031826</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767358</v>
+        <v>0.5987779368767353</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038867</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144038</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J44" t="n">
-        <v>50.8205289199919</v>
+        <v>50.82052891999186</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798414</v>
+        <v>76.16679898798408</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367556</v>
+        <v>94.49164927367549</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086071</v>
       </c>
       <c r="N44" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119401</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529577</v>
+        <v>86.1050157952957</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089765</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733329</v>
+        <v>37.61298457733326</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657862</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677912</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013885</v>
+        <v>0.04790223495013882</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713594</v>
+        <v>0.3203744404713592</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447077</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938672</v>
+        <v>11.03043577938671</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -34456,7 +34456,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>77.11717782286007</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -34468,19 +34468,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595809</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650027</v>
+        <v>5.950814716650022</v>
       </c>
       <c r="T45" t="n">
-        <v>1.29133381926833</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048418</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162245</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673371</v>
+        <v>8.077268967673366</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064862</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L46" t="n">
-        <v>39.9321815892776</v>
+        <v>39.93218158927757</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089235</v>
+        <v>42.10288658089232</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257736</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322418</v>
+        <v>37.96414084322415</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937315</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.49084778151131</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097293</v>
+        <v>4.680811551097289</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214776</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0146504273899759</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>200.5318035203929</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
@@ -34792,7 +34792,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,10 +35023,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>109.4615733925917</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M12" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>287.7334829729927</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0636470933146</v>
+        <v>163.0636470933145</v>
       </c>
       <c r="K17" t="n">
-        <v>388.016241166179</v>
+        <v>388.0162411661788</v>
       </c>
       <c r="L17" t="n">
-        <v>529.8239484906601</v>
+        <v>529.8239484906597</v>
       </c>
       <c r="M17" t="n">
-        <v>586.588827693762</v>
+        <v>586.5888276937617</v>
       </c>
       <c r="N17" t="n">
-        <v>568.7829918257812</v>
+        <v>568.7829918257809</v>
       </c>
       <c r="O17" t="n">
-        <v>478.1385521310661</v>
+        <v>478.1385521310658</v>
       </c>
       <c r="P17" t="n">
-        <v>380.4275390325455</v>
+        <v>380.4275390325452</v>
       </c>
       <c r="Q17" t="n">
-        <v>208.2824649583042</v>
+        <v>208.282464958304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>340.2261317381064</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>511.6551577618729</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>133.7901252766644</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6603117045713</v>
+        <v>547.1649511500818</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>430.126197772382</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>250.3743849529918</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.07119121460659</v>
+        <v>93.0711912146065</v>
       </c>
       <c r="L19" t="n">
-        <v>179.1061138606417</v>
+        <v>179.1061138606416</v>
       </c>
       <c r="M19" t="n">
-        <v>202.218036540413</v>
+        <v>202.2180365404129</v>
       </c>
       <c r="N19" t="n">
-        <v>198.7508072915003</v>
+        <v>198.7508072915002</v>
       </c>
       <c r="O19" t="n">
-        <v>177.0123674784076</v>
+        <v>177.0123674784075</v>
       </c>
       <c r="P19" t="n">
         <v>131.9233768307442</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.95928461457617</v>
+        <v>10.9592846145761</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0636470933147</v>
+        <v>163.0636470933145</v>
       </c>
       <c r="K20" t="n">
-        <v>388.016241166179</v>
+        <v>388.0162411661788</v>
       </c>
       <c r="L20" t="n">
-        <v>529.8239484906601</v>
+        <v>529.8239484906597</v>
       </c>
       <c r="M20" t="n">
-        <v>586.5888276937621</v>
+        <v>586.5888276937618</v>
       </c>
       <c r="N20" t="n">
-        <v>568.7829918257812</v>
+        <v>568.7829918257809</v>
       </c>
       <c r="O20" t="n">
-        <v>478.1385521310661</v>
+        <v>478.1385521310658</v>
       </c>
       <c r="P20" t="n">
-        <v>380.4275390325455</v>
+        <v>380.4275390325452</v>
       </c>
       <c r="Q20" t="n">
-        <v>208.2824649583042</v>
+        <v>208.282464958304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>409.7316566167773</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>690.1973159575707</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>547.1649511500818</v>
       </c>
       <c r="P21" t="n">
-        <v>20.89148692805178</v>
+        <v>430.126197772382</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>250.3743849529918</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.0711912146066</v>
+        <v>93.0711912146065</v>
       </c>
       <c r="L22" t="n">
-        <v>179.1061138606418</v>
+        <v>179.1061138606416</v>
       </c>
       <c r="M22" t="n">
-        <v>202.218036540413</v>
+        <v>202.2180365404129</v>
       </c>
       <c r="N22" t="n">
-        <v>198.7508072915003</v>
+        <v>198.7508072915002</v>
       </c>
       <c r="O22" t="n">
-        <v>177.0123674784077</v>
+        <v>177.0123674784075</v>
       </c>
       <c r="P22" t="n">
         <v>131.9233768307442</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.95928461457617</v>
+        <v>10.9592846145761</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>104.6250157678664</v>
+        <v>553.229577069028</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>624.4802353708498</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>104.6250157678664</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>104.6250157678664</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>470.89602087847</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>245.0791955121977</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>207.0960455179259</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>745.7260435143695</v>
       </c>
       <c r="O33" t="n">
-        <v>104.6250157678664</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>217.0001339857452</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>259.420211162988</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>71.33794840153506</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>711.2299552235481</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>330.5240092662781</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>245.2893477068338</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460808</v>
       </c>
       <c r="K44" t="n">
         <v>438.7752394197637</v>
@@ -38025,19 +38025,19 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596986</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666693</v>
       </c>
       <c r="O44" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018834</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419567</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>71.33794840153506</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>711.2299552235481</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38192,10 +38192,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373314</v>
+        <v>153.5719171373313</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
